--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor.JHON\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor.JHON\Documents\GitHub\INSTITUTO_GOURMET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AD1C78-3792-45AE-BE5F-EFBB4D553466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4225129E-F53D-4459-A77F-5306BF10355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turmas" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
   <si>
     <t>Curso</t>
   </si>
@@ -110,69 +110,6 @@
     <t xml:space="preserve">Leonardo Thomé </t>
   </si>
   <si>
-    <t>thay</t>
-  </si>
-  <si>
-    <t>Thaysse</t>
-  </si>
-  <si>
-    <t>gih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giovanna </t>
-  </si>
-  <si>
-    <t>guilherme</t>
-  </si>
-  <si>
-    <t>Guilherme</t>
-  </si>
-  <si>
-    <t>gaby</t>
-  </si>
-  <si>
-    <t>0707</t>
-  </si>
-  <si>
-    <t>Gabryella Santos</t>
-  </si>
-  <si>
-    <t>allysson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordenador Comercial </t>
-  </si>
-  <si>
-    <t>Allysson Machado</t>
-  </si>
-  <si>
-    <t>lorena</t>
-  </si>
-  <si>
-    <t>Lorena Pícolo</t>
-  </si>
-  <si>
-    <t>secretaria</t>
-  </si>
-  <si>
-    <t>Alessandra</t>
-  </si>
-  <si>
-    <t>Diretora(Coordenadora)</t>
-  </si>
-  <si>
-    <t>Coordenadora Secretaria</t>
-  </si>
-  <si>
-    <t>Coordenador Financeiro</t>
-  </si>
-  <si>
-    <t>wesley</t>
-  </si>
-  <si>
-    <t>Wesley</t>
-  </si>
-  <si>
     <t>GASTRONOMIA</t>
   </si>
   <si>
@@ -194,39 +131,12 @@
     <t>GASTRONOMIA SAUDÁVEL</t>
   </si>
   <si>
-    <t>CAKE DESIGN</t>
-  </si>
-  <si>
-    <t>GOURMETZINHOS</t>
-  </si>
-  <si>
-    <t>GARÇOM VENDEDOR</t>
-  </si>
-  <si>
     <t>GAS7.M.3</t>
   </si>
   <si>
     <t>08:30-12:30</t>
   </si>
   <si>
-    <t>2°</t>
-  </si>
-  <si>
-    <t>2° MÓDULO</t>
-  </si>
-  <si>
-    <t>3° MÓDULO</t>
-  </si>
-  <si>
-    <t>4° MÓDULO</t>
-  </si>
-  <si>
-    <t>3°</t>
-  </si>
-  <si>
-    <t>4°</t>
-  </si>
-  <si>
     <t>SEGUNDA-FEIRA</t>
   </si>
   <si>
@@ -239,30 +149,6 @@
     <t>GAS2.N.3</t>
   </si>
   <si>
-    <t>5°</t>
-  </si>
-  <si>
-    <t>5° MÓDULO</t>
-  </si>
-  <si>
-    <t>7° MÓDULO</t>
-  </si>
-  <si>
-    <t>8° MÓDULO</t>
-  </si>
-  <si>
-    <t>9° MÓDULO</t>
-  </si>
-  <si>
-    <t>7°</t>
-  </si>
-  <si>
-    <t>8°</t>
-  </si>
-  <si>
-    <t>9°</t>
-  </si>
-  <si>
     <t>CHEF5.N.3</t>
   </si>
   <si>
@@ -272,12 +158,6 @@
     <t>19:00-22:00</t>
   </si>
   <si>
-    <t>6°</t>
-  </si>
-  <si>
-    <t>6° MÓDULO</t>
-  </si>
-  <si>
     <t>CONF7.M.1</t>
   </si>
   <si>
@@ -290,55 +170,85 @@
     <t>13:30-17:30</t>
   </si>
   <si>
-    <t>11°</t>
-  </si>
-  <si>
-    <t>12°</t>
-  </si>
-  <si>
-    <t>13°</t>
-  </si>
-  <si>
-    <t>11° MÓDULO</t>
-  </si>
-  <si>
-    <t>12° MÓDULO</t>
-  </si>
-  <si>
-    <t>13° MÓDULO</t>
-  </si>
-  <si>
-    <t>14° MÓDULO</t>
-  </si>
-  <si>
-    <t>14°</t>
-  </si>
-  <si>
     <t>CONF5.N.1</t>
   </si>
   <si>
     <t>CONF4.M.1</t>
   </si>
   <si>
-    <t>1° MÓDULO</t>
-  </si>
-  <si>
-    <t>1°</t>
-  </si>
-  <si>
     <t>DOC4.N.1</t>
   </si>
   <si>
-    <t>CAKE DESING</t>
-  </si>
-  <si>
-    <t>CAKE2.M.1</t>
-  </si>
-  <si>
-    <t>09:00-13:00</t>
-  </si>
-  <si>
-    <t>1° AULA</t>
+    <t>Abertura Livro Comercial</t>
+  </si>
+  <si>
+    <t>Gastronomia Mexicana</t>
+  </si>
+  <si>
+    <t>Abertura Livro Especialidade</t>
+  </si>
+  <si>
+    <t>História e Estrutura da Confeitaria</t>
+  </si>
+  <si>
+    <t>Higiene e Segurança Alimentar</t>
+  </si>
+  <si>
+    <t>Massas Básicas</t>
+  </si>
+  <si>
+    <t>Chocolateria 1</t>
+  </si>
+  <si>
+    <t>Abertura Livro Comercial e Vendas</t>
+  </si>
+  <si>
+    <t>Doces Caramelizados</t>
+  </si>
+  <si>
+    <t>Confeitaria Inclusiva</t>
+  </si>
+  <si>
+    <t>Técnicas de Congelamento Aplicadas</t>
+  </si>
+  <si>
+    <t>Verrines</t>
+  </si>
+  <si>
+    <t>Planejamento e Organização de Eventos</t>
+  </si>
+  <si>
+    <t>Atendendo a Festas e Eventos</t>
+  </si>
+  <si>
+    <t>Atendimento ao Cliente</t>
+  </si>
+  <si>
+    <t>CAKE DESING PORTÃO</t>
+  </si>
+  <si>
+    <t>CAKE4.N.1</t>
+  </si>
+  <si>
+    <t>CAKE DESIGN PORTÃO</t>
+  </si>
+  <si>
+    <t>patricia</t>
+  </si>
+  <si>
+    <t>Patrícia Theodoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenadora Comercial </t>
+  </si>
+  <si>
+    <t>Augusto</t>
+  </si>
+  <si>
+    <t>Coordenador Regional</t>
+  </si>
+  <si>
+    <t>Augusto Fábricio</t>
   </si>
 </sst>
 </file>
@@ -388,14 +298,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -678,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,848 +630,476 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1">
-        <v>45843</v>
+        <v>45948</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H3" s="1">
-        <v>45871</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1">
-        <v>45913</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1">
-        <v>45840</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1">
-        <v>45882</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1">
-        <v>45917</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1">
-        <v>45845</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1">
-        <v>45887</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1">
-        <v>45929</v>
+        <v>45962</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1">
-        <v>45848</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1">
-        <v>45876</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1">
-        <v>45904</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1">
-        <v>45864</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H15" s="1">
-        <v>45892</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H16" s="1">
-        <v>45920</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1">
-        <v>45852</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H18" s="1">
-        <v>45880</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1">
-        <v>45922</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="H20" s="1">
-        <v>45855</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="1">
-        <v>45883</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="1">
-        <v>45918</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="1">
-        <v>45855</v>
-      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="1">
-        <v>45890</v>
-      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="1">
-        <v>45918</v>
-      </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="1">
-        <v>45854</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="1">
-        <v>45889</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="1">
-        <v>45917</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="1">
-        <v>45840</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="1">
-        <v>45861</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="1">
-        <v>45896</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="1">
-        <v>45866</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H45" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1575,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66338743-E91C-4D10-AD34-CA49DA31C0B0}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,115 +1168,37 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3">
-        <v>5709</v>
+        <v>1023</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3">
-        <v>3501</v>
+        <v>1023</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4764</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7309</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4859</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2214</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2215</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1750,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,13 +1241,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>12702.75</v>
+        <v>34930</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1798,13 +1255,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>12702.75</v>
+        <v>34930</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -1812,13 +1269,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>10602.75</v>
+        <v>31430</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -1826,13 +1283,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>10602.75</v>
+        <v>31430</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -1840,13 +1297,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>10602.75</v>
+        <v>3140</v>
       </c>
       <c r="D6">
         <v>21</v>
@@ -1854,13 +1311,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>6114</v>
+        <v>17160</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -1868,13 +1325,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>5364</v>
+        <v>15960</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -1882,13 +1339,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>5371.5</v>
+        <v>13980</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1896,13 +1353,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>3121.5</v>
+        <v>7980</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1910,13 +1367,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>4246.5</v>
+        <v>10980</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1924,44 +1381,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>3121.5</v>
+        <v>7980</v>
       </c>
       <c r="D12">
         <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>2310.25</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>1685.25</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor.JHON\Documents\GitHub\INSTITUTO_GOURMET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4225129E-F53D-4459-A77F-5306BF10355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCD9320-570F-4906-B1D3-BEFA15D785DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1157,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="3">
-        <v>5207</v>
+        <v>5790</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
